--- a/rule/英语音译对应表.xlsx
+++ b/rule/英语音译对应表.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1E8F1FF3-619F-41C6-B870-11A211E27222}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A869FF71-1907-48A9-B217-FE62650C43CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="410">
   <si>
     <t>汉字</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,31 +354,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ɔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -873,10 +848,6 @@
     <t>萨</t>
   </si>
   <si>
-    <t>假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -967,10 +938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特泰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1229,518 +1196,617 @@
     <t>夏</t>
   </si>
   <si>
+    <t>迈</t>
+  </si>
+  <si>
+    <t>赖</t>
+  </si>
+  <si>
+    <t>拜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜伊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>坦</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>坎</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>凡</t>
+  </si>
+  <si>
+    <t>赞</t>
+  </si>
+  <si>
+    <t>灿</t>
+  </si>
+  <si>
+    <t>桑</t>
+  </si>
+  <si>
+    <t>尚</t>
+  </si>
+  <si>
+    <t>詹</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>汉</t>
+  </si>
+  <si>
+    <t>扬</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>环</t>
+  </si>
+  <si>
+    <t>班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邦</t>
+  </si>
+  <si>
+    <t>庞</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>唐</t>
+  </si>
+  <si>
+    <t>冈</t>
+  </si>
+  <si>
+    <t>康</t>
+  </si>
+  <si>
+    <t>旺</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>藏</t>
+  </si>
+  <si>
+    <t>仓</t>
+  </si>
+  <si>
+    <t>章</t>
+  </si>
+  <si>
+    <t>昌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭 </t>
+  </si>
+  <si>
+    <t>朗</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>匡</t>
+  </si>
+  <si>
+    <t>芒</t>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>彭</t>
+  </si>
+  <si>
+    <t>登</t>
+  </si>
+  <si>
+    <t>滕</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>肯</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>芬</t>
+  </si>
+  <si>
+    <t>曾</t>
+  </si>
+  <si>
+    <t>岑</t>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>申</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>亨</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>嫩</t>
+  </si>
+  <si>
+    <t>伦</t>
+  </si>
+  <si>
+    <t>古恩</t>
+  </si>
+  <si>
+    <t>本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆</t>
+  </si>
+  <si>
+    <t>昆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>廷</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>钦</t>
+  </si>
+  <si>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>宾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古恩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>兴</t>
+  </si>
+  <si>
+    <t>灵</t>
+  </si>
+  <si>
+    <t>古英</t>
+  </si>
+  <si>
+    <t>京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬</t>
+  </si>
+  <si>
+    <t>敦</t>
+  </si>
+  <si>
+    <t>丰</t>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>聪</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>顺</t>
+  </si>
+  <si>
+    <t>准</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洪 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蒙</t>
+  </si>
+  <si>
+    <t>通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>琼</t>
+  </si>
+  <si>
+    <t>洪</t>
+  </si>
+  <si>
+    <t>蒙</t>
+  </si>
+  <si>
+    <t>隆</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>永</t>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙/莎</t>
+  </si>
+  <si>
+    <t>马/玛</t>
+  </si>
+  <si>
+    <t>纳/娜</t>
+  </si>
+  <si>
+    <t>亚/娅</t>
+  </si>
+  <si>
+    <t>代/黛</t>
+  </si>
+  <si>
+    <t>西/锡</t>
+  </si>
+  <si>
+    <t>尼/妮</t>
+  </si>
+  <si>
+    <t>利/莉</t>
+  </si>
+  <si>
+    <t>里/丽</t>
+  </si>
+  <si>
+    <t>海/亥</t>
+  </si>
+  <si>
+    <t>南/楠</t>
+  </si>
+  <si>
+    <t>真/珍</t>
+  </si>
+  <si>
+    <t>林/琳</t>
+  </si>
+  <si>
+    <t>东/栋</t>
+  </si>
+  <si>
+    <t>弗/夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯/丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ɔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ːŋ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>贾</t>
-  </si>
-  <si>
-    <t>迈</t>
-  </si>
-  <si>
-    <t>赖</t>
-  </si>
-  <si>
-    <t>拜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>柴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜伊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘</t>
-  </si>
-  <si>
-    <t>丹</t>
-  </si>
-  <si>
-    <t>坦</t>
-  </si>
-  <si>
-    <t>甘</t>
-  </si>
-  <si>
-    <t>坎</t>
-  </si>
-  <si>
-    <t>万</t>
-  </si>
-  <si>
-    <t>凡</t>
-  </si>
-  <si>
-    <t>赞</t>
-  </si>
-  <si>
-    <t>灿</t>
-  </si>
-  <si>
-    <t>桑</t>
-  </si>
-  <si>
-    <t>尚</t>
-  </si>
-  <si>
-    <t>詹</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>汉</t>
-  </si>
-  <si>
-    <t>扬</t>
-  </si>
-  <si>
-    <t>关</t>
-  </si>
-  <si>
-    <t>宽</t>
-  </si>
-  <si>
-    <t>环</t>
-  </si>
-  <si>
-    <t>班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>藻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邦</t>
-  </si>
-  <si>
-    <t>庞</t>
-  </si>
-  <si>
-    <t>当</t>
-  </si>
-  <si>
-    <t>唐</t>
-  </si>
-  <si>
-    <t>冈</t>
-  </si>
-  <si>
-    <t>康</t>
-  </si>
-  <si>
-    <t>旺</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>藏</t>
-  </si>
-  <si>
-    <t>仓</t>
-  </si>
-  <si>
-    <t>章</t>
-  </si>
-  <si>
-    <t>昌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杭 </t>
-  </si>
-  <si>
-    <t>朗</t>
-  </si>
-  <si>
-    <t>光</t>
-  </si>
-  <si>
-    <t>匡</t>
-  </si>
-  <si>
-    <t>芒</t>
-  </si>
-  <si>
-    <t>黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>彭</t>
-  </si>
-  <si>
-    <t>登</t>
-  </si>
-  <si>
-    <t>滕</t>
-  </si>
-  <si>
-    <t>根</t>
-  </si>
-  <si>
-    <t>肯</t>
-  </si>
-  <si>
-    <t>文</t>
-  </si>
-  <si>
-    <t>芬</t>
-  </si>
-  <si>
-    <t>曾</t>
-  </si>
-  <si>
-    <t>岑</t>
-  </si>
-  <si>
-    <t>森</t>
-  </si>
-  <si>
-    <t>任</t>
-  </si>
-  <si>
-    <t>申</t>
-  </si>
-  <si>
-    <t>琴</t>
-  </si>
-  <si>
-    <t>亨</t>
-  </si>
-  <si>
-    <t>门</t>
-  </si>
-  <si>
-    <t>嫩</t>
-  </si>
-  <si>
-    <t>伦</t>
-  </si>
-  <si>
-    <t>古恩</t>
-  </si>
-  <si>
-    <t>本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆</t>
-  </si>
-  <si>
-    <t>昆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾</t>
-  </si>
-  <si>
-    <t>平</t>
-  </si>
-  <si>
-    <t>丁</t>
-  </si>
-  <si>
-    <t>廷</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>钦</t>
-  </si>
-  <si>
-    <t>辛</t>
-  </si>
-  <si>
-    <t>欣</t>
-  </si>
-  <si>
-    <t>宾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>古恩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青</t>
-  </si>
-  <si>
-    <t>兴</t>
-  </si>
-  <si>
-    <t>灵</t>
-  </si>
-  <si>
-    <t>古英</t>
-  </si>
-  <si>
-    <t>京</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓬</t>
-  </si>
-  <si>
-    <t>敦</t>
-  </si>
-  <si>
-    <t>丰</t>
-  </si>
-  <si>
-    <t>尊</t>
-  </si>
-  <si>
-    <t>聪</t>
-  </si>
-  <si>
-    <t>孙</t>
-  </si>
-  <si>
-    <t>顺</t>
-  </si>
-  <si>
-    <t>准</t>
-  </si>
-  <si>
-    <t>春</t>
-  </si>
-  <si>
-    <t xml:space="preserve">洪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蒙</t>
-  </si>
-  <si>
-    <t>通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔</t>
-  </si>
-  <si>
-    <t>松</t>
-  </si>
-  <si>
-    <t>雄</t>
-  </si>
-  <si>
-    <t>琼</t>
-  </si>
-  <si>
-    <t>洪</t>
-  </si>
-  <si>
-    <t>蒙</t>
-  </si>
-  <si>
-    <t>隆</t>
-  </si>
-  <si>
-    <t>龙</t>
-  </si>
-  <si>
-    <t>永</t>
-  </si>
-  <si>
-    <t>宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙/莎</t>
-  </si>
-  <si>
-    <t>马/玛</t>
-  </si>
-  <si>
-    <t>纳/娜</t>
-  </si>
-  <si>
-    <t>亚/娅</t>
-  </si>
-  <si>
-    <t>代/黛</t>
-  </si>
-  <si>
-    <t>西/锡</t>
-  </si>
-  <si>
-    <t>尼/妮</t>
-  </si>
-  <si>
-    <t>利/莉</t>
-  </si>
-  <si>
-    <t>里/丽</t>
-  </si>
-  <si>
-    <t>海/亥</t>
-  </si>
-  <si>
-    <t>南/楠</t>
-  </si>
-  <si>
-    <t>真/珍</t>
-  </si>
-  <si>
-    <t>林/琳</t>
-  </si>
-  <si>
-    <t>东/栋</t>
-  </si>
-  <si>
-    <t>弗/夫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯/丝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ɡ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ɔ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>写导为ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，国际音标为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,6 +1914,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1899,8 +1973,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2363,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2377,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2455,18 +2557,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2510,7 +2612,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -2596,7 +2698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2662,7 +2764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -2673,7 +2775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -2681,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2692,10 +2794,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>13</v>
       </c>
@@ -2703,18 +2805,18 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2722,57 +2824,54 @@
         <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2780,43 +2879,46 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>14</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>56</v>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2824,10 +2926,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2835,32 +2937,32 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5">
-      <c r="A43">
-        <v>17</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2868,10 +2970,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2879,21 +2981,32 @@
         <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5">
-      <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
+      <c r="C47" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2907,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2918,10 +3031,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2935,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2946,10 +3059,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2957,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2968,10 +3081,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2979,10 +3092,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2990,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3001,13 +3114,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3015,13 +3128,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3029,13 +3142,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3043,10 +3156,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3054,10 +3167,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3065,10 +3178,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3076,13 +3189,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3090,13 +3203,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3104,13 +3217,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3118,10 +3231,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3129,10 +3242,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3140,10 +3253,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3151,10 +3264,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3162,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3173,10 +3286,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3184,10 +3297,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3195,10 +3308,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3206,10 +3319,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3217,7 +3330,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3228,7 +3341,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3236,7 +3349,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3244,7 +3357,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3372,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3353,74 +3466,74 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="V2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3428,77 +3541,77 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="M3" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="R3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3506,77 +3619,77 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="M4" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3584,79 +3697,79 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="R5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="T5" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="V5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="Y5" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="U5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3664,77 +3777,77 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="L6" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3742,79 +3855,79 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="P7" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" s="10" t="s">
+      <c r="V7" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="W7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="X7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="Z7" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3822,79 +3935,79 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="H8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="T8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="U8" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="V8" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="W8" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="X8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="Z8" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3902,74 +4015,74 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Z9" s="9"/>
     </row>
@@ -3978,65 +4091,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="K10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="S10" s="9" t="s">
+      <c r="V10" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -4048,77 +4161,77 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>255</v>
+        <v>406</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="U11" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="V11" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4126,72 +4239,72 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="I12" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>297</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="T12" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="U12" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="V12" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="W12" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Z12" s="9"/>
     </row>
@@ -4200,77 +4313,77 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="I13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="W13" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="X13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Y13" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="Z13" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4278,77 +4391,77 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="I14" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>315</v>
-      </c>
       <c r="M14" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="W14" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="X14" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Y14" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="U14" s="9" t="s">
+      <c r="Z14" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4356,76 +4469,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="I15" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="P15" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="V15" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="U15" s="9" t="s">
+      <c r="Y15" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="Z15" s="9"/>
     </row>
@@ -4434,72 +4547,72 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="T16" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>358</v>
-      </c>
       <c r="U16" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z16" s="9"/>
     </row>
@@ -4508,71 +4621,71 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="H17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S17" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="V17" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -4582,68 +4695,68 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="T18" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="W18" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -4654,78 +4767,79 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="V19" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="Q19" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="R19" s="9" t="s">
+      <c r="W19" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>